--- a/Vikas_API/src/Test data/API data.xlsx
+++ b/Vikas_API/src/Test data/API data.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16140" windowHeight="2955" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Get " sheetId="1" r:id="rId1"/>
+    <sheet name="post" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:I8"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>Tc Id</t>
   </si>
@@ -45,9 +46,6 @@
     <t>Response(body)</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>tc_001</t>
   </si>
   <si>
@@ -60,12 +58,6 @@
     <t>tc_004</t>
   </si>
   <si>
-    <t>tc_005</t>
-  </si>
-  <si>
-    <t>tc_006</t>
-  </si>
-  <si>
     <t>Validate status code &amp; status line</t>
   </si>
   <si>
@@ -91,6 +83,78 @@
   </si>
   <si>
     <t>https://reqres.in/api</t>
+  </si>
+  <si>
+    <t>Status line</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 OK</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>S No</t>
+  </si>
+  <si>
+    <t>JSON KEY ID value</t>
+  </si>
+  <si>
+    <t>JSON KEY Email value</t>
+  </si>
+  <si>
+    <t>JSON KEY First_name  value</t>
+  </si>
+  <si>
+    <t>vikas@gmail.com</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>vikas</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>sanjeev</t>
+  </si>
+  <si>
+    <t>sanjeev@gmail.com</t>
+  </si>
+  <si>
+    <t>ravi@gmail.com</t>
+  </si>
+  <si>
+    <t>ravi</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>rathaiah</t>
+  </si>
+  <si>
+    <t>rathaiah2gmail.com</t>
+  </si>
+  <si>
+    <t>base uri</t>
+  </si>
+  <si>
+    <t>req</t>
   </si>
 </sst>
 </file>
@@ -160,11 +224,14 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -468,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -479,143 +546,163 @@
     <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -626,9 +713,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -640,14 +725,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
@@ -662,13 +747,133 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="5" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3:E4" r:id="rId2" display="vikas@gmail.com"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="E4" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId5"/>
+    <hyperlink ref="B3:B4" r:id="rId6" display="https://reqres.in/api"/>
+    <hyperlink ref="B5" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/Vikas_API/src/Test data/API data.xlsx
+++ b/Vikas_API/src/Test data/API data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16140" windowHeight="2955" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16140" windowHeight="4110"/>
   </bookViews>
   <sheets>
     <sheet name="Get " sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:I8"/>
+  <oleSize ref="A1:G7"/>
 </workbook>
 </file>
 
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
